--- a/项目成本管理.xlsx
+++ b/项目成本管理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6E7F84-F9A1-4B64-AD48-8AAEAEB0EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E9B02-DF0A-47B4-8B04-0F3BE01F04B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
@@ -261,13 +261,6 @@
 • 项目管理信息系统</t>
   </si>
   <si>
-    <t>• 工作绩效信息
-• 成本预测
-• 变更请求
-• 项目管理计划（更新）
-• 项目文件（更新）</t>
-  </si>
-  <si>
     <t>• 成本基准
 • 项目资金需求
 • 项目文件（更新）</t>
@@ -291,19 +284,26 @@
 • 决策</t>
   </si>
   <si>
+    <t>成本管理计划</t>
+  </si>
+  <si>
     <t>• 成本估算
 • 估算依据
-♦ 项目文件（更新）</t>
-  </si>
-  <si>
-    <t>成本管理计划</t>
+• 项目文件（更新）</t>
+  </si>
+  <si>
+    <t>• 工作绩效信息
+•  成本预测
+• 变更请求
+• 项目管理计划（更新）
+• 项目文件（更新）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,36 +337,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="黑体"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +366,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -442,22 +437,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,15 +795,16 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,27 +825,27 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="108" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -860,25 +856,25 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
